--- a/checklist_modelo.xlsx
+++ b/checklist_modelo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Meier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B8D67B-B781-45F7-8CC3-64DAEEE4005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5011C924-CB64-4D4E-8DF2-E41905D50389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,100 +57,100 @@
     <t>Relatório</t>
   </si>
   <si>
-    <t>Comunicação |Não cumprimentou corretamente (padrão regional/linguístico)</t>
+    <t>Não cumprimentou corretamente (padrão regional/linguístico)</t>
   </si>
   <si>
     <t>Resumo</t>
   </si>
   <si>
-    <t>Compreensão do Problema |  Não reconheceu todas as preocupações do cliente</t>
-  </si>
-  <si>
-    <t>Compreensão do Problema | Não coletou informações relevantes (comentários/ferramentas)</t>
-  </si>
-  <si>
-    <t>Compreensão do Problema | Não fez perguntas relevantes</t>
-  </si>
-  <si>
-    <t>Resolução | Resolução fora da Base de Conhecimento (KB)</t>
-  </si>
-  <si>
-    <t>Resolução | Informações imprecisas, irrelevantes ou incompletas</t>
-  </si>
-  <si>
-    <t>Resolução | Não abordou todas as preocupações do cliente</t>
-  </si>
-  <si>
-    <t>Resolução | Não resolveu questões adicionais da conta</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Ações externas (voltadas ao cliente)</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Ações internas (processos internos)</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Não realizou ajustes monetários necessários (dentro do limite)</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Não roteou corretamente o contato</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Não fechou contatos duplicados</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Não compartilhou detalhes internos conforme diretrizes</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Não escalou corretamente conforme KB</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Não compartilhou detalhes da escalação corretamente</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Tipo de problema selecionado incorretamente</t>
-  </si>
-  <si>
-    <t>Ações Corretas | Não seguiu diretrizes de tempo de espera</t>
-  </si>
-  <si>
-    <t>Comunicação Fechamento | Não definiu expectativas corretamente</t>
-  </si>
-  <si>
-    <t>Comunicação Fechamento | Não orientou nem educou o cliente</t>
-  </si>
-  <si>
-    <t>Comunicação Fechamento | Não verificou necessidades adicionais</t>
-  </si>
-  <si>
-    <t>Comunicação | Falta de empatia no atendimento</t>
-  </si>
-  <si>
-    <t>Comunicação | Não personalizou a situação do cliente</t>
-  </si>
-  <si>
-    <t>Comunicação | Erros de gramática, ortografia ou formatação</t>
-  </si>
-  <si>
-    <t>Comunicação | Uso excessivo de respostas salvas / tom robótico</t>
-  </si>
-  <si>
-    <t>Comunicação | Interrompeu, cortou a fala ou apressou o cliente</t>
-  </si>
-  <si>
-    <t>Conformidade Crítica | Comprometeu a privacidade do cliente (Segurança/PCI)</t>
-  </si>
-  <si>
-    <t>Conformidade Crítica | Violou confidencialidade da empresa (informações internas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conformidade Crítica | Comunicação inadequada (comentários negativos, rudeza) </t>
-  </si>
-  <si>
-    <t>Conformidade Crítica | Não escalou corretamente questão de jogo responsável</t>
-  </si>
-  <si>
-    <t>Conformidade Crítica | Não escalou corretamente ameaças legais/regulatórias</t>
+    <t>Não reconheceu todas as preocupações do cliente</t>
+  </si>
+  <si>
+    <t>Não coletou informações relevantes (comentários/ferramentas)</t>
+  </si>
+  <si>
+    <t>Não fez perguntas relevantes</t>
+  </si>
+  <si>
+    <t>Resolução fora da Base de Conhecimento (KB)</t>
+  </si>
+  <si>
+    <t>Informações imprecisas, irrelevantes ou incompletas</t>
+  </si>
+  <si>
+    <t>Não abordou todas as preocupações do cliente</t>
+  </si>
+  <si>
+    <t>Não resolveu questões adicionais da conta</t>
+  </si>
+  <si>
+    <t>Ações externas (voltadas ao cliente)</t>
+  </si>
+  <si>
+    <t>Ações internas (processos internos)</t>
+  </si>
+  <si>
+    <t>Não realizou ajustes monetários necessários (dentro do limite)</t>
+  </si>
+  <si>
+    <t>Não transferiu corretamente o contato</t>
+  </si>
+  <si>
+    <t>Não fechou contatos duplicados</t>
+  </si>
+  <si>
+    <t>Não compartilhou detalhes internos conforme diretrizes</t>
+  </si>
+  <si>
+    <t>Não escalou corretamente conforme KB</t>
+  </si>
+  <si>
+    <t>Não compartilhou detalhes da escalação corretamente</t>
+  </si>
+  <si>
+    <t>Tipo de problema selecionado incorretamente</t>
+  </si>
+  <si>
+    <t>Não seguiu diretrizes de tempo de espera</t>
+  </si>
+  <si>
+    <t>Não definiu expectativas corretamente</t>
+  </si>
+  <si>
+    <t>Não orientou nem educou o cliente</t>
+  </si>
+  <si>
+    <t>Não verificou necessidades adicionais</t>
+  </si>
+  <si>
+    <t>Falta de empatia no atendimento</t>
+  </si>
+  <si>
+    <t>Não personalizou a situação do cliente</t>
+  </si>
+  <si>
+    <t>Erros de gramática, ortografia ou formatação</t>
+  </si>
+  <si>
+    <t>Uso excessivo de respostas salvas / tom robótico</t>
+  </si>
+  <si>
+    <t>Interrompeu, cortou a fala ou apressou o cliente</t>
+  </si>
+  <si>
+    <t>Comprometeu a privacidade do cliente (Segurança/PCI)</t>
+  </si>
+  <si>
+    <t>Violou confidencialidade da empresa (informações internas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicação inadequada (comentários negativos, rudeza) </t>
+  </si>
+  <si>
+    <t>Não escalou corretamente questão de jogo responsável</t>
+  </si>
+  <si>
+    <t>Não escalou corretamente ameaças legais/regulatórias</t>
   </si>
   <si>
     <t>Critério</t>
@@ -1558,8 +1558,8 @@
   <dimension ref="B1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1970,7 +1970,7 @@
   <dimension ref="B2:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
